--- a/최종_인프라요약_전처리결과.xlsx
+++ b/최종_인프라요약_전처리결과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,13 +489,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -539,57 +539,76 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>작약꽃축제A</t>
+          <t>우주항공축제</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>작약꽃축제B</t>
+          <t>작약꽃축제A</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>작약꽃축제B</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>작약꽃축제C</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>28</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>73</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>0.38</v>
       </c>
     </row>
